--- a/T19C-Back-End/bloco-21-Funcoes-SQL-JOINs-e-Normalizacao/dia-03-transformando-ideias-em-um-modelo-de-banco-de-dados/exercice-03.xlsx
+++ b/T19C-Back-End/bloco-21-Funcoes-SQL-JOINs-e-Normalizacao/dia-03-transformando-ideias-em-um-modelo-de-banco-de-dados/exercice-03.xlsx
@@ -20,9 +20,9 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="23">
-  <si>
-    <t xml:space="preserve">TABELA </t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="25">
+  <si>
+    <t xml:space="preserve">TABELA HEROI</t>
   </si>
   <si>
     <t xml:space="preserve">heroi_id</t>
@@ -31,6 +31,12 @@
     <t xml:space="preserve">heroi</t>
   </si>
   <si>
+    <t xml:space="preserve">criador_id</t>
+  </si>
+  <si>
+    <t xml:space="preserve">liga_id</t>
+  </si>
+  <si>
     <t xml:space="preserve">Homem Aranha</t>
   </si>
   <si>
@@ -43,52 +49,90 @@
     <t xml:space="preserve">Batman</t>
   </si>
   <si>
-    <t xml:space="preserve">UNIVERSO</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CRIADOR</t>
+    <r>
+      <rPr>
+        <b val="true"/>
+        <sz val="14"/>
+        <color rgb="FFFFFFFF"/>
+        <rFont val="Calibri"/>
+        <family val="0"/>
+      </rPr>
+      <t xml:space="preserve">TABELA </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FFE7E6E6"/>
+        <rFont val="Calibri"/>
+        <family val="0"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">CRIADOR</t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">criador</t>
+  </si>
+  <si>
+    <t xml:space="preserve">criador_idade</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Stan Lee</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Gardner Fox</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Bill Finger</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Len Wein</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b val="true"/>
+        <sz val="14"/>
+        <color rgb="FFFFFFFF"/>
+        <rFont val="Calibri"/>
+        <family val="0"/>
+      </rPr>
+      <t xml:space="preserve">TABELA </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FFFFFFFF"/>
+        <rFont val="Calibri"/>
+        <family val="0"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">UNIVERSO</t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">liga</t>
   </si>
   <si>
     <t xml:space="preserve">universo_id</t>
   </si>
   <si>
-    <t xml:space="preserve">liga</t>
+    <t xml:space="preserve">Avengers</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Justice League</t>
+  </si>
+  <si>
+    <t xml:space="preserve">X-man</t>
   </si>
   <si>
     <t xml:space="preserve">universo</t>
   </si>
   <si>
-    <t xml:space="preserve">criador</t>
-  </si>
-  <si>
-    <t xml:space="preserve">criador_idade</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Avengers</t>
-  </si>
-  <si>
     <t xml:space="preserve">Marvel</t>
   </si>
   <si>
-    <t xml:space="preserve">Stan Lee</t>
-  </si>
-  <si>
-    <t xml:space="preserve">X-Men</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Gardner Fox</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Justice League</t>
-  </si>
-  <si>
     <t xml:space="preserve">DC</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Bill Finger</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Len Wein</t>
   </si>
 </sst>
 </file>
@@ -98,7 +142,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="General"/>
   </numFmts>
-  <fonts count="8">
+  <fonts count="10">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -140,6 +184,20 @@
       <b val="true"/>
       <sz val="14"/>
       <color rgb="FF4D7474"/>
+      <name val="Calibri"/>
+      <family val="0"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <b val="true"/>
+      <sz val="14"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Calibri"/>
+      <family val="0"/>
+    </font>
+    <font>
+      <sz val="14"/>
+      <color rgb="FFE7E6E6"/>
       <name val="Calibri"/>
       <family val="0"/>
       <charset val="1"/>
@@ -243,6 +301,10 @@
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
     <xf numFmtId="164" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -255,15 +317,11 @@
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="7" fillId="2" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="7" fillId="2" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="7" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="7" fillId="2" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -344,26 +402,26 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:X15"/>
+  <dimension ref="A1:Y1048576"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="false" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="B1" colorId="64" zoomScale="140" zoomScaleNormal="140" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="E18" activeCellId="0" sqref="E18"/>
+    <sheetView showFormulas="false" showGridLines="false" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="C29" activeCellId="0" sqref="C29"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.14453125" defaultRowHeight="14.25" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="9.14453125" defaultRowHeight="17.35" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="12.78"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="17.11"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="1" width="15.92"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="1" width="11.2"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="1" width="13.56"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="1" width="16.95"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="1" width="17.89"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="1" width="16.46"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="1" width="12.35"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="10" style="1" width="15.32"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="11" min="11" style="1" width="18.28"/>
-    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1024" min="12" style="1" width="9.14"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="17.89"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="1" width="18.3"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="1" width="13.26"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="5" style="1" width="13.56"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="1" width="16.95"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="1" width="17.89"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="1" width="16.46"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="10" style="1" width="12.35"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="11" min="11" style="1" width="15.32"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="12" min="12" style="1" width="18.28"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1024" min="13" style="1" width="9.14"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -371,8 +429,8 @@
         <v>0</v>
       </c>
       <c r="B1" s="2"/>
-      <c r="C1" s="0"/>
-      <c r="D1" s="0"/>
+      <c r="C1" s="2"/>
+      <c r="D1" s="2"/>
       <c r="E1" s="0"/>
       <c r="F1" s="0"/>
       <c r="G1" s="0"/>
@@ -380,6 +438,7 @@
       <c r="I1" s="0"/>
       <c r="J1" s="0"/>
       <c r="K1" s="0"/>
+      <c r="L1" s="0"/>
     </row>
     <row r="2" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="3" t="s">
@@ -388,8 +447,12 @@
       <c r="B2" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="C2" s="0"/>
-      <c r="D2" s="0"/>
+      <c r="C2" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="D2" s="4" t="s">
+        <v>4</v>
+      </c>
       <c r="E2" s="0"/>
       <c r="F2" s="0"/>
       <c r="G2" s="0"/>
@@ -397,16 +460,21 @@
       <c r="I2" s="0"/>
       <c r="J2" s="0"/>
       <c r="K2" s="0"/>
+      <c r="L2" s="0"/>
     </row>
     <row r="3" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="4" t="n">
+      <c r="A3" s="5" t="n">
         <v>1</v>
       </c>
-      <c r="B3" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="C3" s="0"/>
-      <c r="D3" s="0"/>
+      <c r="B3" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="D3" s="5" t="n">
+        <v>1</v>
+      </c>
       <c r="E3" s="0"/>
       <c r="F3" s="0"/>
       <c r="G3" s="0"/>
@@ -414,16 +482,21 @@
       <c r="I3" s="0"/>
       <c r="J3" s="0"/>
       <c r="K3" s="0"/>
+      <c r="L3" s="0"/>
     </row>
     <row r="4" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="5" t="n">
+      <c r="A4" s="6" t="n">
         <v>2</v>
       </c>
-      <c r="B4" s="5" t="s">
-        <v>4</v>
-      </c>
-      <c r="C4" s="0"/>
-      <c r="D4" s="0"/>
+      <c r="B4" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="C4" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="D4" s="6" t="n">
+        <v>3</v>
+      </c>
       <c r="E4" s="0"/>
       <c r="F4" s="0"/>
       <c r="G4" s="0"/>
@@ -431,16 +504,24 @@
       <c r="I4" s="0"/>
       <c r="J4" s="0"/>
       <c r="K4" s="0"/>
+      <c r="L4" s="0"/>
+      <c r="M4" s="0"/>
+      <c r="N4" s="0"/>
+      <c r="O4" s="0"/>
     </row>
     <row r="5" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="4" t="n">
+      <c r="A5" s="5" t="n">
         <v>3</v>
       </c>
-      <c r="B5" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="C5" s="0"/>
-      <c r="D5" s="0"/>
+      <c r="B5" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="C5" s="4" t="n">
+        <v>2</v>
+      </c>
+      <c r="D5" s="5" t="n">
+        <v>2</v>
+      </c>
       <c r="E5" s="0"/>
       <c r="F5" s="0"/>
       <c r="G5" s="0"/>
@@ -461,16 +542,21 @@
       <c r="V5" s="0"/>
       <c r="W5" s="0"/>
       <c r="X5" s="0"/>
+      <c r="Y5" s="0"/>
     </row>
     <row r="6" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="5" t="n">
+      <c r="A6" s="6" t="n">
         <v>4</v>
       </c>
-      <c r="B6" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="C6" s="0"/>
-      <c r="D6" s="0"/>
+      <c r="B6" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="C6" s="4" t="n">
+        <v>3</v>
+      </c>
+      <c r="D6" s="6" t="n">
+        <v>2</v>
+      </c>
       <c r="E6" s="0"/>
       <c r="F6" s="0"/>
       <c r="G6" s="0"/>
@@ -491,8 +577,10 @@
       <c r="V6" s="0"/>
       <c r="W6" s="0"/>
       <c r="X6" s="0"/>
+      <c r="Y6" s="0"/>
     </row>
     <row r="7" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E7" s="0"/>
       <c r="F7" s="0"/>
       <c r="G7" s="0"/>
       <c r="H7" s="0"/>
@@ -512,8 +600,10 @@
       <c r="V7" s="0"/>
       <c r="W7" s="0"/>
       <c r="X7" s="0"/>
-    </row>
-    <row r="8" s="6" customFormat="true" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="Y7" s="0"/>
+    </row>
+    <row r="8" s="7" customFormat="true" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E8" s="0"/>
       <c r="F8" s="0"/>
       <c r="G8" s="0"/>
       <c r="H8" s="0"/>
@@ -533,17 +623,16 @@
       <c r="V8" s="0"/>
       <c r="W8" s="0"/>
       <c r="X8" s="0"/>
-    </row>
-    <row r="9" s="6" customFormat="true" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="7" t="s">
-        <v>7</v>
-      </c>
-      <c r="B9" s="7"/>
-      <c r="C9" s="7"/>
-      <c r="E9" s="8" t="s">
-        <v>8</v>
-      </c>
-      <c r="F9" s="8"/>
+      <c r="Y8" s="0"/>
+    </row>
+    <row r="9" s="7" customFormat="true" ht="17.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A9" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="B9" s="8"/>
+      <c r="C9" s="8"/>
+      <c r="E9" s="0"/>
+      <c r="F9" s="0"/>
       <c r="G9" s="0"/>
       <c r="H9" s="0"/>
       <c r="I9" s="0"/>
@@ -562,10 +651,11 @@
       <c r="V9" s="0"/>
       <c r="W9" s="0"/>
       <c r="X9" s="0"/>
-    </row>
-    <row r="10" s="6" customFormat="true" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="9" t="s">
-        <v>9</v>
+      <c r="Y9" s="0"/>
+    </row>
+    <row r="10" s="7" customFormat="true" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A10" s="4" t="s">
+        <v>3</v>
       </c>
       <c r="B10" s="3" t="s">
         <v>10</v>
@@ -573,12 +663,8 @@
       <c r="C10" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="E10" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="F10" s="3" t="s">
-        <v>13</v>
-      </c>
+      <c r="E10" s="0"/>
+      <c r="F10" s="0"/>
       <c r="G10" s="0"/>
       <c r="H10" s="0"/>
       <c r="I10" s="0"/>
@@ -597,23 +683,20 @@
       <c r="V10" s="0"/>
       <c r="W10" s="0"/>
       <c r="X10" s="0"/>
-    </row>
-    <row r="11" s="6" customFormat="true" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="Y10" s="0"/>
+    </row>
+    <row r="11" s="7" customFormat="true" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="4" t="n">
         <v>1</v>
       </c>
-      <c r="B11" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="C11" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="E11" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="F11" s="4" t="n">
+      <c r="B11" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="C11" s="5" t="n">
         <v>95</v>
       </c>
+      <c r="E11" s="0"/>
+      <c r="F11" s="0"/>
       <c r="G11" s="0"/>
       <c r="H11" s="0"/>
       <c r="I11" s="0"/>
@@ -632,23 +715,20 @@
       <c r="V11" s="0"/>
       <c r="W11" s="0"/>
       <c r="X11" s="0"/>
-    </row>
-    <row r="12" s="6" customFormat="true" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="5" t="n">
+      <c r="Y11" s="0"/>
+    </row>
+    <row r="12" s="7" customFormat="true" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A12" s="4" t="n">
         <v>2</v>
       </c>
-      <c r="B12" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="C12" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="E12" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="F12" s="5" t="n">
+      <c r="B12" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="C12" s="6" t="n">
         <v>75</v>
       </c>
+      <c r="E12" s="0"/>
+      <c r="F12" s="0"/>
       <c r="G12" s="0"/>
       <c r="H12" s="0"/>
       <c r="I12" s="0"/>
@@ -667,23 +747,20 @@
       <c r="V12" s="0"/>
       <c r="W12" s="0"/>
       <c r="X12" s="0"/>
-    </row>
-    <row r="13" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="Y12" s="0"/>
+    </row>
+    <row r="13" s="7" customFormat="true" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="4" t="n">
         <v>3</v>
       </c>
-      <c r="B13" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="C13" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="E13" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="F13" s="4" t="n">
+      <c r="B13" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="C13" s="5" t="n">
         <v>60</v>
       </c>
+      <c r="E13" s="0"/>
+      <c r="F13" s="0"/>
       <c r="G13" s="0"/>
       <c r="H13" s="0"/>
       <c r="I13" s="0"/>
@@ -702,29 +779,26 @@
       <c r="V13" s="0"/>
       <c r="W13" s="0"/>
       <c r="X13" s="0"/>
-    </row>
-    <row r="14" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A14" s="5" t="n">
+      <c r="Y13" s="0"/>
+    </row>
+    <row r="14" s="7" customFormat="true" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A14" s="4" t="n">
         <v>4</v>
       </c>
-      <c r="B14" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="C14" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="E14" s="5" t="s">
-        <v>22</v>
-      </c>
-      <c r="F14" s="5" t="n">
+      <c r="B14" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="C14" s="6" t="n">
         <v>69</v>
       </c>
+      <c r="E14" s="0"/>
+      <c r="F14" s="0"/>
       <c r="G14" s="0"/>
       <c r="H14" s="0"/>
       <c r="I14" s="0"/>
-      <c r="J14" s="0"/>
-      <c r="K14" s="0"/>
-      <c r="L14" s="0"/>
+      <c r="J14" s="1"/>
+      <c r="K14" s="1"/>
+      <c r="L14" s="1"/>
       <c r="M14" s="0"/>
       <c r="N14" s="0"/>
       <c r="O14" s="0"/>
@@ -737,8 +811,14 @@
       <c r="V14" s="0"/>
       <c r="W14" s="0"/>
       <c r="X14" s="0"/>
-    </row>
-    <row r="15" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="Y14" s="0"/>
+    </row>
+    <row r="15" s="7" customFormat="true" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A15" s="0"/>
+      <c r="B15" s="0"/>
+      <c r="C15" s="0"/>
+      <c r="E15" s="0"/>
+      <c r="F15" s="0"/>
       <c r="G15" s="0"/>
       <c r="H15" s="0"/>
       <c r="I15" s="0"/>
@@ -757,12 +837,340 @@
       <c r="V15" s="0"/>
       <c r="W15" s="0"/>
       <c r="X15" s="0"/>
-    </row>
+      <c r="Y15" s="0"/>
+    </row>
+    <row r="16" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A16" s="0"/>
+      <c r="B16" s="0"/>
+      <c r="C16" s="0"/>
+      <c r="E16" s="0"/>
+      <c r="F16" s="0"/>
+      <c r="G16" s="0"/>
+      <c r="H16" s="0"/>
+      <c r="I16" s="0"/>
+      <c r="J16" s="0"/>
+      <c r="K16" s="0"/>
+      <c r="L16" s="0"/>
+      <c r="M16" s="0"/>
+      <c r="N16" s="0"/>
+      <c r="O16" s="0"/>
+      <c r="P16" s="0"/>
+      <c r="Q16" s="0"/>
+      <c r="R16" s="0"/>
+      <c r="S16" s="0"/>
+      <c r="T16" s="0"/>
+      <c r="U16" s="0"/>
+      <c r="V16" s="0"/>
+      <c r="W16" s="0"/>
+      <c r="X16" s="0"/>
+      <c r="Y16" s="0"/>
+    </row>
+    <row r="17" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A17" s="0"/>
+      <c r="B17" s="0"/>
+      <c r="C17" s="0"/>
+      <c r="E17" s="0"/>
+      <c r="F17" s="0"/>
+      <c r="G17" s="0"/>
+      <c r="H17" s="0"/>
+      <c r="I17" s="0"/>
+      <c r="J17" s="0"/>
+      <c r="K17" s="0"/>
+      <c r="L17" s="0"/>
+      <c r="M17" s="0"/>
+      <c r="N17" s="0"/>
+      <c r="O17" s="0"/>
+      <c r="P17" s="0"/>
+      <c r="Q17" s="0"/>
+      <c r="R17" s="0"/>
+      <c r="S17" s="0"/>
+      <c r="T17" s="0"/>
+      <c r="U17" s="0"/>
+      <c r="V17" s="0"/>
+      <c r="W17" s="0"/>
+      <c r="X17" s="0"/>
+      <c r="Y17" s="0"/>
+    </row>
+    <row r="18" customFormat="false" ht="17.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A18" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="B18" s="9"/>
+      <c r="C18" s="9"/>
+      <c r="E18" s="0"/>
+      <c r="F18" s="0"/>
+      <c r="G18" s="0"/>
+      <c r="H18" s="0"/>
+      <c r="I18" s="0"/>
+      <c r="J18" s="0"/>
+      <c r="K18" s="0"/>
+      <c r="L18" s="0"/>
+      <c r="M18" s="0"/>
+      <c r="N18" s="0"/>
+      <c r="O18" s="0"/>
+      <c r="P18" s="0"/>
+      <c r="Q18" s="0"/>
+      <c r="R18" s="0"/>
+      <c r="S18" s="0"/>
+      <c r="T18" s="0"/>
+      <c r="U18" s="0"/>
+      <c r="V18" s="0"/>
+      <c r="W18" s="0"/>
+      <c r="X18" s="0"/>
+      <c r="Y18" s="0"/>
+    </row>
+    <row r="19" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A19" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="B19" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="C19" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="D19" s="0"/>
+      <c r="E19" s="0"/>
+      <c r="F19" s="0"/>
+      <c r="G19" s="0"/>
+      <c r="H19" s="0"/>
+      <c r="I19" s="0"/>
+      <c r="J19" s="0"/>
+      <c r="K19" s="0"/>
+      <c r="L19" s="0"/>
+      <c r="M19" s="0"/>
+      <c r="N19" s="0"/>
+      <c r="O19" s="0"/>
+      <c r="P19" s="0"/>
+      <c r="Q19" s="0"/>
+      <c r="R19" s="0"/>
+      <c r="S19" s="0"/>
+      <c r="T19" s="0"/>
+      <c r="U19" s="0"/>
+      <c r="V19" s="0"/>
+      <c r="W19" s="0"/>
+      <c r="X19" s="0"/>
+      <c r="Y19" s="0"/>
+    </row>
+    <row r="20" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A20" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="B20" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="C20" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="D20" s="0"/>
+      <c r="E20" s="0"/>
+      <c r="F20" s="0"/>
+      <c r="G20" s="0"/>
+      <c r="H20" s="0"/>
+      <c r="I20" s="0"/>
+      <c r="J20" s="0"/>
+      <c r="K20" s="0"/>
+      <c r="L20" s="0"/>
+      <c r="M20" s="0"/>
+      <c r="N20" s="0"/>
+      <c r="O20" s="0"/>
+      <c r="P20" s="0"/>
+      <c r="Q20" s="0"/>
+      <c r="R20" s="0"/>
+      <c r="S20" s="0"/>
+    </row>
+    <row r="21" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A21" s="6" t="n">
+        <v>2</v>
+      </c>
+      <c r="B21" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="C21" s="6" t="n">
+        <v>2</v>
+      </c>
+      <c r="D21" s="0"/>
+      <c r="E21" s="0"/>
+      <c r="F21" s="0"/>
+      <c r="G21" s="0"/>
+      <c r="H21" s="0"/>
+      <c r="I21" s="0"/>
+      <c r="J21" s="0"/>
+      <c r="K21" s="0"/>
+      <c r="L21" s="0"/>
+      <c r="M21" s="0"/>
+      <c r="N21" s="0"/>
+      <c r="O21" s="0"/>
+      <c r="P21" s="0"/>
+      <c r="Q21" s="0"/>
+      <c r="R21" s="0"/>
+      <c r="S21" s="0"/>
+    </row>
+    <row r="22" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A22" s="5" t="n">
+        <v>3</v>
+      </c>
+      <c r="B22" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="C22" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="D22" s="0"/>
+      <c r="E22" s="0"/>
+      <c r="F22" s="0"/>
+      <c r="G22" s="0"/>
+      <c r="H22" s="0"/>
+      <c r="I22" s="0"/>
+      <c r="J22" s="0"/>
+      <c r="K22" s="0"/>
+      <c r="L22" s="0"/>
+      <c r="M22" s="0"/>
+      <c r="N22" s="0"/>
+      <c r="O22" s="0"/>
+      <c r="P22" s="0"/>
+      <c r="Q22" s="0"/>
+      <c r="R22" s="0"/>
+      <c r="S22" s="0"/>
+    </row>
+    <row r="23" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B23" s="0"/>
+      <c r="C23" s="0"/>
+      <c r="D23" s="0"/>
+      <c r="E23" s="0"/>
+      <c r="F23" s="0"/>
+      <c r="G23" s="0"/>
+      <c r="H23" s="0"/>
+      <c r="I23" s="0"/>
+      <c r="J23" s="0"/>
+      <c r="K23" s="0"/>
+      <c r="L23" s="0"/>
+      <c r="M23" s="0"/>
+      <c r="N23" s="0"/>
+      <c r="O23" s="0"/>
+      <c r="P23" s="0"/>
+      <c r="Q23" s="0"/>
+      <c r="R23" s="0"/>
+      <c r="S23" s="0"/>
+    </row>
+    <row r="24" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A24" s="0"/>
+      <c r="B24" s="0"/>
+      <c r="C24" s="0"/>
+      <c r="D24" s="0"/>
+      <c r="E24" s="0"/>
+      <c r="F24" s="0"/>
+      <c r="G24" s="0"/>
+      <c r="H24" s="0"/>
+      <c r="I24" s="0"/>
+      <c r="J24" s="0"/>
+      <c r="K24" s="0"/>
+      <c r="L24" s="0"/>
+      <c r="M24" s="0"/>
+      <c r="N24" s="0"/>
+      <c r="O24" s="0"/>
+      <c r="P24" s="0"/>
+      <c r="Q24" s="0"/>
+      <c r="R24" s="0"/>
+      <c r="S24" s="0"/>
+    </row>
+    <row r="25" customFormat="false" ht="17.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A25" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="B25" s="9"/>
+      <c r="C25" s="0"/>
+      <c r="D25" s="0"/>
+      <c r="E25" s="0"/>
+      <c r="F25" s="0"/>
+      <c r="G25" s="0"/>
+      <c r="H25" s="0"/>
+      <c r="I25" s="0"/>
+      <c r="J25" s="0"/>
+      <c r="K25" s="0"/>
+      <c r="L25" s="0"/>
+      <c r="M25" s="0"/>
+      <c r="N25" s="0"/>
+      <c r="O25" s="0"/>
+      <c r="P25" s="0"/>
+      <c r="Q25" s="0"/>
+      <c r="R25" s="0"/>
+      <c r="S25" s="0"/>
+    </row>
+    <row r="26" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A26" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="B26" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="C26" s="0"/>
+      <c r="D26" s="0"/>
+      <c r="E26" s="0"/>
+      <c r="F26" s="0"/>
+      <c r="G26" s="0"/>
+      <c r="H26" s="0"/>
+      <c r="I26" s="0"/>
+      <c r="J26" s="0"/>
+      <c r="K26" s="0"/>
+      <c r="L26" s="0"/>
+      <c r="M26" s="0"/>
+      <c r="N26" s="0"/>
+      <c r="O26" s="0"/>
+      <c r="P26" s="0"/>
+      <c r="Q26" s="0"/>
+      <c r="R26" s="0"/>
+      <c r="S26" s="0"/>
+    </row>
+    <row r="27" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A27" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="B27" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="C27" s="0"/>
+      <c r="D27" s="0"/>
+      <c r="G27" s="0"/>
+      <c r="H27" s="0"/>
+      <c r="I27" s="0"/>
+    </row>
+    <row r="28" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A28" s="6" t="n">
+        <v>2</v>
+      </c>
+      <c r="B28" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="C28" s="0"/>
+      <c r="G28" s="0"/>
+      <c r="H28" s="0"/>
+      <c r="I28" s="0"/>
+    </row>
+    <row r="29" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A29" s="0"/>
+      <c r="B29" s="0"/>
+      <c r="C29" s="0"/>
+      <c r="G29" s="0"/>
+      <c r="H29" s="0"/>
+      <c r="I29" s="0"/>
+    </row>
+    <row r="30" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="G30" s="0"/>
+      <c r="H30" s="0"/>
+      <c r="I30" s="0"/>
+    </row>
+    <row r="1048572" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048573" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048574" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048575" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048576" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
   </sheetData>
-  <mergeCells count="3">
-    <mergeCell ref="A1:B1"/>
+  <mergeCells count="4">
+    <mergeCell ref="A1:D1"/>
     <mergeCell ref="A9:C9"/>
-    <mergeCell ref="E9:F9"/>
+    <mergeCell ref="A18:C18"/>
+    <mergeCell ref="A25:B25"/>
   </mergeCells>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.700694444444444" right="0.700694444444444" top="0.752083333333333" bottom="0.752083333333333" header="0.511805555555555" footer="0.511805555555555"/>
